--- a/biology/Médecine/Foramen_déchiré/Foramen_déchiré.xlsx
+++ b/biology/Médecine/Foramen_déchiré/Foramen_déchiré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foramen_d%C3%A9chir%C3%A9</t>
+          <t>Foramen_déchiré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le foramen déchiré[1] ou trou déchiré antérieur est un orifice triangulaire situé à la base du crâne. 
-Il ne faut pas le confondre avec le trou déchiré postérieur qui dans la nomenclature TA2 se nomme foramen jugulaire[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le foramen déchiré ou trou déchiré antérieur est un orifice triangulaire situé à la base du crâne. 
+Il ne faut pas le confondre avec le trou déchiré postérieur qui dans la nomenclature TA2 se nomme foramen jugulaire.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Foramen_d%C3%A9chir%C3%A9</t>
+          <t>Foramen_déchiré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen déchiré est limité par
 le bord postérieur de la grande aile de l'os sphénoïde formant son bord antérieur,
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Foramen_d%C3%A9chir%C3%A9</t>
+          <t>Foramen_déchiré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen déchiré se remplit de tissu fibreux après la naissance.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Foramen_d%C3%A9chir%C3%A9</t>
+          <t>Foramen_déchiré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Rapport</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen déchiré permet le passage de nombreuses structures dont : :
 l'artère du canal ptérygoïdien,
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Foramen_d%C3%A9chir%C3%A9</t>
+          <t>Foramen_déchiré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,9 +639,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le foramen déchiré a été décrit comme une porte d'entrée dans le crâne pour les tumeurs, y compris le carcinome nasopharyngé, l'angiofibrome juvénile, le carcinome adénoïde kystique,le mélanome malin et le lymphome [3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le foramen déchiré a été décrit comme une porte d'entrée dans le crâne pour les tumeurs, y compris le carcinome nasopharyngé, l'angiofibrome juvénile, le carcinome adénoïde kystique,le mélanome malin et le lymphome ,.
 </t>
         </is>
       </c>
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Foramen_d%C3%A9chir%C3%A9</t>
+          <t>Foramen_déchiré</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,10 +672,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première mention enregistrée du foramen déchiré a été faite par l'anatomiste Wenzel Gruber en 1869[5],[3].
-L'étude de ce foramen a été négligée pendant de nombreuses années en raison du faible rôle qu'il joue dans la chirurgie intracrânienne[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première mention enregistrée du foramen déchiré a été faite par l'anatomiste Wenzel Gruber en 1869,.
+L'étude de ce foramen a été négligée pendant de nombreuses années en raison du faible rôle qu'il joue dans la chirurgie intracrânienne.
 </t>
         </is>
       </c>
